--- a/data/z_score.xlsx
+++ b/data/z_score.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\Desktop\GitHub\Data_Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CEA20D-DD1D-4C54-A939-F773DCD20DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D324BAE-8DB7-4AA6-B339-F5F86F64F349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13545" yWindow="1335" windowWidth="16410" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -348,15 +355,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -364,7 +371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -372,7 +379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -380,7 +387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -388,7 +395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -396,7 +403,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -404,7 +411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -412,7 +419,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -420,7 +427,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -428,7 +435,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -436,7 +443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -444,7 +451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -452,7 +459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -460,7 +467,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -468,7 +475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -476,7 +483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -484,7 +491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -492,7 +499,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -500,7 +507,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -508,7 +515,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -516,7 +523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -524,7 +531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -532,7 +539,16 @@
         <v>-4</v>
       </c>
     </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>-7</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>